--- a/src/referenceMaterials/info.xlsx
+++ b/src/referenceMaterials/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ОБУЧЕНИЕ\3я_четверть\SafeGuardControl\src\referenceMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A534108D-83CB-4A9D-8145-0260681E80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D3834-5801-4BD2-8497-FF0380ACE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C540564-969F-4C33-BF47-A339858DF4EE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t xml:space="preserve">Перчатки диэлектрические </t>
   </si>
@@ -73,6 +74,36 @@
   </si>
   <si>
     <t>Изолирующая штанга</t>
+  </si>
+  <si>
+    <t>изолирующие клещи</t>
+  </si>
+  <si>
+    <t>указатели напряжения</t>
+  </si>
+  <si>
+    <t>Сигнализаторы напряжения</t>
+  </si>
+  <si>
+    <t>Диэлектрические боты</t>
+  </si>
+  <si>
+    <t>Диэлектрические галоши</t>
+  </si>
+  <si>
+    <t>Диэлектрические ковры</t>
+  </si>
+  <si>
+    <t>Изолирующие колпаки</t>
+  </si>
+  <si>
+    <t>Изолирующие накладки</t>
+  </si>
+  <si>
+    <t>ручной изолирующий инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переносное заземление </t>
   </si>
 </sst>
 </file>
@@ -168,11 +199,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,13 +228,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,233 +551,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA47A2-833F-4F74-A325-CC7FD2E7928D}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I12"/>
+      <selection activeCell="A16" sqref="A5:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="13" customWidth="1"/>
-    <col min="12" max="21" width="9.140625" style="13"/>
+    <col min="3" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:21" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/referenceMaterials/info.xlsx
+++ b/src/referenceMaterials/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ОБУЧЕНИЕ\3я_четверть\SafeGuardControl\src\referenceMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D3834-5801-4BD2-8497-FF0380ACE534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48CE3D-F82C-4F35-BD23-739F58490350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C540564-969F-4C33-BF47-A339858DF4EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t xml:space="preserve">Перчатки диэлектрические </t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A5:A16"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,9 @@
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -720,7 +722,9 @@
       <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -735,7 +739,9 @@
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -750,7 +756,9 @@
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -765,7 +773,9 @@
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -780,7 +790,9 @@
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -788,14 +800,16 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -803,14 +817,16 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -818,14 +834,16 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -833,14 +851,16 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -849,9 +869,7 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
